--- a/keywords1.xlsx
+++ b/keywords1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C455"/>
+  <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>waterproof tiles for home waterproof tiles near me</t>
+          <t>waterproof tiles</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,7 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>waterproof tiles</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,7 +512,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>waterproof stick on tiles for shower</t>
+          <t>waterproof vinyl tile flooring</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -527,7 +523,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>palisade wall tile</t>
+          <t>waterproof stick on tiles for shower</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -538,7 +534,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>waterproof vinyl flooring that looks like tile</t>
+          <t>palisade wall tile</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -549,161 +545,161 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>waterproof vinyl tile</t>
+          <t>waterproof vinyl flooring that looks like tile</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>waterproof peel and stick tiles</t>
+          <t>waterproof vinyl tile</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>waterproof tile flooring</t>
+          <t>waterproof peel and stick tiles</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>moisture resistant ceiling tiles</t>
+          <t>waterproof tile flooring</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>balcony waterproofing without removing tiles</t>
+          <t>moisture resistant ceiling tiles</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>palisade waterproof wall tiles</t>
+          <t>balcony waterproofing without removing tiles</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>waterproof carpet tiles</t>
+          <t>palisade waterproof wall tiles</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>waterproofing bathroom without removing tiles</t>
+          <t>waterproof carpet tiles</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>waterproofing shower walls</t>
+          <t>waterproofing bathroom without removing tiles</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>floor tiles for basement</t>
+          <t>waterproofing shower walls</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vinyl shower wall panels</t>
+          <t>floor tiles for basement</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>waterproof bathroom ceiling panels</t>
+          <t>vinyl shower wall panels</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>waterproofing over tiles</t>
+          <t>waterproof bathroom ceiling panels</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>waterproof stick on tiles</t>
+          <t>waterproofing over tiles</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>interlocking floor tiles waterproof</t>
+          <t>waterproof stick on tiles</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -714,29 +710,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>waterproof ceiling panels</t>
+          <t>interlocking floor tiles waterproof</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>waterproof ceiling tiles 2x4</t>
+          <t>waterproof ceiling panels</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>basement floor tiles waterproof</t>
+          <t>waterproof ceiling tiles 2x4</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -747,7 +743,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>waterproof peel and stick shower wall tiles</t>
+          <t>basement floor tiles waterproof</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -758,29 +754,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>water resistant ceiling tiles</t>
+          <t>waterproof peel and stick shower wall tiles</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>waterproofing shower walls for tile</t>
+          <t>water resistant ceiling tiles</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor tile bathroom</t>
+          <t>waterproofing shower walls for tile</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -791,29 +787,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>waterproof ceiling tiles 2x2</t>
+          <t>waterproof peel and stick floor tile bathroom</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>best waterproof shower wall panels</t>
+          <t>waterproof ceiling tiles 2x2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>basement tiles waterproof</t>
+          <t>best waterproof shower wall panels</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -824,7 +820,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>waterproof panels for shower</t>
+          <t>basement tiles waterproof</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -835,29 +831,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>waterproof floor tiles</t>
+          <t>waterproof panels for shower</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>interlocking basement floor tiles waterproof</t>
+          <t>waterproof floor tiles</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>waterproof stick on tiles for bathroom</t>
+          <t>interlocking basement floor tiles waterproof</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -868,7 +864,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>duma wall</t>
+          <t>waterproof stick on tiles for bathroom</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -879,7 +875,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vinyl tile flooring waterproof</t>
+          <t>12x24 waterproof vinyl flooring</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -890,95 +886,95 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>waterproofing over existing tiles</t>
+          <t>duma wall</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>palisade vinyl wall tile</t>
+          <t>vinyl tile flooring waterproof</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>waterproof stick on bathroom floor tiles</t>
+          <t>waterproofing over existing tiles</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>waterproof outdoor stick on tiles</t>
+          <t>palisade vinyl wall tile</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>waterproof peel and stick tiles for shower</t>
+          <t>waterproof stick on bathroom floor tiles</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>waterproofing without removing tiles</t>
+          <t>waterproof outdoor stick on tiles</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>best waterproof peel and stick floor tile</t>
+          <t>waterproof peel and stick tiles for shower</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>waterproof peel and stick shower tiles</t>
+          <t>waterproofing without removing tiles</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>peel and stick floor tile waterproof</t>
+          <t>best waterproof peel and stick floor tile</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -989,7 +985,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>waterproof vinyl wall panels</t>
+          <t>waterproof peel and stick shower tiles</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1000,7 +996,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>waterproof deck tiles</t>
+          <t>peel and stick floor tile waterproof</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1011,18 +1007,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>waterproof tiles for bathroom</t>
+          <t>waterproof vinyl wall panels</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>waterproofing and tiling</t>
+          <t>waterproof deck tiles</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1033,18 +1029,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>waterproof vinyl for shower walls</t>
+          <t>waterproof tiles for bathroom</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vinyl for shower walls</t>
+          <t>waterproofing and tiling</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1055,18 +1051,18 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>waterproof bathroom without tiles</t>
+          <t>waterproof vinyl for shower walls</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>shower tile waterproofing</t>
+          <t>vinyl for shower walls</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1077,29 +1073,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>wedi waterproofing</t>
+          <t>waterproof bathroom without tiles</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>waterproofing over bathroom tiles</t>
+          <t>shower tile waterproofing</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>waterproof bathtub wall panels</t>
+          <t>wedi waterproofing</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1110,7 +1106,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>waterproofing showers</t>
+          <t>waterproofing over bathroom tiles</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1121,40 +1117,40 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>groutable water resistant peel and stick vinyl tile</t>
+          <t>waterproof bathtub wall panels</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>basement carpet tiles waterproof</t>
+          <t>waterproofing showers</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>waterproof peel and stick wall tiles</t>
+          <t>groutable water resistant peel and stick vinyl tile</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>waterproof vinyl tiles for bathroom</t>
+          <t>basement carpet tiles waterproof</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1165,18 +1161,18 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>smartcore desert canyon tile</t>
+          <t>waterproof peel and stick wall tiles</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>waterproof carpet tiles for bathroom</t>
+          <t>waterproof vinyl tiles for bathroom</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1187,18 +1183,18 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bathroom stick on tiles waterproof</t>
+          <t>smartcore desert canyon tile</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>palisade waterproof tiles</t>
+          <t>waterproof carpet tiles for bathroom</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1209,7 +1205,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>waterproofing balcony tiles</t>
+          <t>bathroom stick on tiles waterproof</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1220,7 +1216,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>waterproof foam floor tiles</t>
+          <t>palisade waterproof tiles</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1231,7 +1227,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>waterproof garage floor tiles</t>
+          <t>waterproofing balcony tiles</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1242,73 +1238,73 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>waterproof wall tiles</t>
+          <t>waterproof foam floor tiles</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>waterproof bathroom tiles</t>
+          <t>waterproof garage floor tiles</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>waterproof bathroom ceiling tiles</t>
+          <t>waterproof wall tiles</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>outdoor deck flooring waterproof</t>
+          <t>waterproof bathroom tiles</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>waterproof backsplash</t>
+          <t>waterproof bathroom ceiling tiles</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>palisade interlocking wall tile</t>
+          <t>outdoor deck flooring waterproof</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>waterproof ceiling tiles 600x600</t>
+          <t>waterproof backsplash</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1319,18 +1315,18 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>waterproof interlocking wall tiles</t>
+          <t>palisade interlocking wall tile</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>waterproof vinyl for bathroom walls</t>
+          <t>waterproof ceiling tiles 600x600</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1341,7 +1337,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>waterproof peel and stick</t>
+          <t>waterproof interlocking wall tiles</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1352,18 +1348,18 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>waterproof vinyl floor tiles</t>
+          <t>waterproof vinyl for bathroom walls</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>waterproof floor tiles for bathroom</t>
+          <t>waterproof peel and stick</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1374,29 +1370,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>waterproof garage floor mat</t>
+          <t>waterproof vinyl floor tiles</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>roof tiles waterproofing</t>
+          <t>waterproof floor tiles for bathroom</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>peel and stick shower tile waterproof</t>
+          <t>waterproof garage floor mat</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1407,18 +1403,18 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cost to waterproof and retile shower</t>
+          <t>roof tiles waterproofing</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>water proof wall panels for shower</t>
+          <t>peel and stick shower tile waterproof</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1429,18 +1425,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>waterproofing on top of tiles</t>
+          <t>cost to waterproof and retile shower</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>vinyl tile for shower walls</t>
+          <t>water proof wall panels for shower</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1451,29 +1447,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>waterproof wall tiles for bathroom</t>
+          <t>waterproofing on top of tiles</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bathroom tiling and waterproofing</t>
+          <t>vinyl tile for shower walls</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>floor tiles peel and stick waterproof</t>
+          <t>waterproof wall tiles for bathroom</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1484,18 +1480,18 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>waterproofing tiles for terrace</t>
+          <t>bathroom tiling and waterproofing</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>interlocking waterproof floor tiles</t>
+          <t>floor tiles peel and stick waterproof</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1506,29 +1502,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bathroom shower waterproofing</t>
+          <t>waterproofing tiles for terrace</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>10</v>
+        <v>880</v>
       </c>
       <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>waterproof outdoor tiles</t>
+          <t>interlocking waterproof floor tiles</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>waterproofing over tiles on balcony</t>
+          <t>bathroom shower waterproofing</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1539,18 +1535,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>everlife bayhill blonde</t>
+          <t>waterproof outdoor tiles</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>smartcore half moon stone</t>
+          <t>waterproofing over tiles on balcony</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1561,18 +1557,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>water resistant peel and stick tile</t>
+          <t>everlife bayhill blonde</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>waterproof backsplash for shower</t>
+          <t>smartcore half moon stone</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1583,7 +1579,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>shower waterproofing over tiles</t>
+          <t>water resistant peel and stick tile</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1594,7 +1590,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>waterproof stick on floor tiles</t>
+          <t>waterproof backsplash for shower</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1605,7 +1601,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>chatham stone smartcore</t>
+          <t>waterproof flooring that looks like tile</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1616,7 +1612,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>waterproofing existing shower</t>
+          <t>shower waterproofing over tiles</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1627,7 +1623,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>waterproof ceiling panels for bathroom</t>
+          <t>waterproof stick on floor tiles</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1638,7 +1634,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor tile for bathroom</t>
+          <t>chatham stone smartcore</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1649,7 +1645,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>waterproofing over tiles in shower</t>
+          <t>waterproofing existing shower</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1660,7 +1656,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>waterproof vinyl shower tiles</t>
+          <t>waterproof ceiling panels for bathroom</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1671,7 +1667,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>waterproof shower without tiles</t>
+          <t>waterproof peel and stick floor tile for bathroom</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1682,62 +1678,62 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>under tile waterproofing</t>
+          <t>waterproofing over tiles in shower</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>waterproof tiles for floor</t>
+          <t>waterproof vinyl shower tiles</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>interlocking vinyl shower tiles</t>
+          <t>waterproof shower without tiles</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mildewproof gap tape</t>
+          <t>under tile waterproofing</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>peel and stick waterproof</t>
+          <t>waterproof tiles for floor</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>waterproof vinyl tile for shower walls</t>
+          <t>interlocking vinyl shower tiles</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1748,40 +1744,40 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>stick on floor tiles waterproof</t>
+          <t>mildewproof gap tape</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>peel and stick waterproof shower tile</t>
+          <t>peel and stick waterproof</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>water resistant floor tiles</t>
+          <t>waterproof vinyl tile for shower walls</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>moisture proof ceiling tiles</t>
+          <t>stick on floor tiles waterproof</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1792,40 +1788,40 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>waterproof stick and peel tile</t>
+          <t>coretec tile look flooring</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>peel and stick waterproof floor tile</t>
+          <t>peel and stick waterproof shower tile</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>waterproof vinyl tiles for shower</t>
+          <t>water resistant floor tiles</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>waterproof carpet tiles for basement</t>
+          <t>moisture proof ceiling tiles</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1836,18 +1832,18 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>waterproof peel and stick backsplash</t>
+          <t>waterproof stick and peel tile</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>spectra tile waterproof ceiling tiles</t>
+          <t>peel and stick waterproof floor tile</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1858,18 +1854,18 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>laminated wall panels for shower</t>
+          <t>waterproof vinyl tiles for shower</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>liquid waterproofing for showers</t>
+          <t>waterproof carpet tiles for basement</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1880,7 +1876,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>palisade pvc tile</t>
+          <t>waterproof peel and stick backsplash</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1891,7 +1887,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>waterproof floating floor tile</t>
+          <t>spectra tile waterproof ceiling tiles</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1902,7 +1898,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>palisade waterproof interlocking wall tiles</t>
+          <t>laminated wall panels for shower</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1913,29 +1909,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>smartcore tile sedona concrete</t>
+          <t>liquid waterproofing for showers</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vinyl sheets for shower walls</t>
+          <t>palisade pvc tile</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>livelynine peel and stick floor tiles</t>
+          <t>waterproof floating floor tile</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1946,7 +1942,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>waterproofing shower without removing tiles</t>
+          <t>palisade waterproof interlocking wall tiles</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1957,18 +1953,18 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor tile kitchen</t>
+          <t>smartcore tile sedona concrete</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>moisture resistant acoustic ceiling tiles</t>
+          <t>vinyl sheets for shower walls</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1979,7 +1975,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>waterproof peel and stick bathroom tiles</t>
+          <t>livelynine peel and stick floor tiles</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1990,7 +1986,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>waterproofing over existing balcony tiles</t>
+          <t>waterproofing shower without removing tiles</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2001,7 +1997,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>waterproof vinyl floor tiles for bathroom</t>
+          <t>waterproof peel and stick floor tile kitchen</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2012,7 +2008,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>waterproof wood look tile flooring</t>
+          <t>moisture resistant acoustic ceiling tiles</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2023,18 +2019,18 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>waterproof suspended ceiling tiles</t>
+          <t>waterproof peel and stick bathroom tiles</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>leaking balcony tiles</t>
+          <t>waterproofing over existing balcony tiles</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2045,7 +2041,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>waterproof foam tiles</t>
+          <t>waterproof vinyl floor tiles for bathroom</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2056,7 +2052,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>waterproof shower ceiling panels</t>
+          <t>waterproof wood look tile flooring</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2067,40 +2063,40 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>spc waterproof vinyl tile</t>
+          <t>waterproof suspended ceiling tiles</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>waterproofing bathroom floor after tiling</t>
+          <t>leaking balcony tiles</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>peel and stick waterproof backsplash</t>
+          <t>waterproof foam tiles</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>waterproof vinyl wall tile</t>
+          <t>waterproof shower ceiling panels</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2111,7 +2107,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>waterproof bathroom carpet tiles</t>
+          <t>spc waterproof vinyl tile</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2122,29 +2118,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>armstrong waterproof ceiling tiles</t>
+          <t>waterproofing bathroom floor after tiling</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>groutable water resistant peel and stick vinyl tile flooring</t>
+          <t>peel and stick waterproof backsplash</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>bathroom waterproof peel and stick floor tile</t>
+          <t>waterproof vinyl wall tile</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2155,7 +2151,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>moisture resistant ceiling panels</t>
+          <t>waterproof bathroom carpet tiles</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2166,7 +2162,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>waterproof shower panels instead of tiles</t>
+          <t>armstrong waterproof ceiling tiles</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2177,29 +2173,29 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>bathroom ceiling tiles waterproof</t>
+          <t>groutable water resistant peel and stick vinyl tile flooring</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>waterproof ceiling sheets</t>
+          <t>bathroom waterproof peel and stick floor tile</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="C159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>waterproof backsplash panels</t>
+          <t>moisture resistant ceiling panels</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2210,40 +2206,40 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>waterproof kitchen wall panels</t>
+          <t>waterproof shower panels instead of tiles</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tile look waterproof vinyl flooring</t>
+          <t>bathroom ceiling tiles waterproof</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>kitchen waterproof peel and stick floor tile</t>
+          <t>waterproof ceiling sheets</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>waterproof for tile shower</t>
+          <t>waterproof backsplash panels</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2254,40 +2250,40 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>terrace tiles waterproofing</t>
+          <t>waterproof kitchen wall panels</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>water proofing for bathroom tiles</t>
+          <t>tile look waterproof vinyl flooring</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>waterproof bathroom floor tiles</t>
+          <t>kitchen waterproof peel and stick floor tile</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>waterproof porcelain tile</t>
+          <t>waterproof for tile shower</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2298,40 +2294,40 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>waterproof sticky tiles for bathroom</t>
+          <t>terrace tiles waterproofing</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>genesis icon coffer ceiling tiles</t>
+          <t>water proofing for bathroom tiles</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>water resistant ceiling panels</t>
+          <t>waterproof bathroom floor tiles</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>waterproof acoustic ceiling tiles</t>
+          <t>waterproof porcelain tile</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2342,7 +2338,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>bathroom stick on wall tiles waterproof</t>
+          <t>waterproof sticky tiles for bathroom</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2353,18 +2349,18 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>waterproof ceiling tiles for shower</t>
+          <t>genesis icon coffer ceiling tiles</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>waterproof backsplash for kitchen</t>
+          <t>water resistant ceiling panels</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2375,40 +2371,40 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>waterproof vinyl tile bathroom</t>
+          <t>waterproof acoustic ceiling tiles</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>water resistant tile</t>
+          <t>bathroom stick on wall tiles waterproof</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>waterproof rubber floor tiles</t>
+          <t>waterproof ceiling tiles for shower</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>peel and stick backsplash waterproof</t>
+          <t>waterproof backsplash for kitchen</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2419,51 +2415,51 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>exterior tile deck waterproofing</t>
+          <t>waterproof vinyl tile bathroom</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>water resistant tiles for bathroom</t>
+          <t>water resistant tile</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>deck tiles waterproof</t>
+          <t>waterproof rubber floor tiles</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>palisade waterproof tiles shower</t>
+          <t>peel and stick backsplash waterproof</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>waterproof interlocking tiles</t>
+          <t>exterior tile deck waterproofing</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2474,18 +2470,18 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>waterproof ceiling tiles for bathroom</t>
+          <t>water resistant tiles for bathroom</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>waterproofing tiles in bathroom</t>
+          <t>deck tiles waterproof</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2496,7 +2492,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>waterproof tile panels</t>
+          <t>palisade waterproof tiles shower</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2507,7 +2503,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>waterproof stick on wall tiles</t>
+          <t>waterproof interlocking tiles</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2518,106 +2514,106 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>waterproof ceramic tile</t>
+          <t>waterproof ceiling tiles for bathroom</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>smartcore desert canyon</t>
+          <t>waterproofing tiles in bathroom</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>water proofing tiles</t>
+          <t>waterproof tile panels</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>waterproof peel and stick tiles for shower floor</t>
+          <t>waterproof stick on wall tiles</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>coretec vv032</t>
+          <t>waterproof ceramic tile</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>waterproof wall tiles for shower</t>
+          <t>smartcore desert canyon</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>shower wall vinyl tiles</t>
+          <t>water proofing tiles</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>waterproof stick tiles</t>
+          <t>waterproof peel and stick tiles for shower floor</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>duma wall tiles</t>
+          <t>coretec vv032</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>stick on waterproof tiles for shower</t>
+          <t>waterproof wall tiles for shower</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2628,7 +2624,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>waterproof cement showers</t>
+          <t>shower wall vinyl tiles</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2639,7 +2635,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>waterproof vinyl tile for bathroom</t>
+          <t>waterproof stick tiles</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2650,7 +2646,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>waterproofing and tiling over tiles</t>
+          <t>duma wall tiles</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2661,7 +2657,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>waterproof tile for shower walls</t>
+          <t>stick on waterproof tiles for shower</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2672,18 +2668,18 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>waterproof patio tiles</t>
+          <t>waterproof cement showers</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>waterproof shower curb</t>
+          <t>waterproof vinyl tile for bathroom</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2694,7 +2690,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>waterproof kitchen floor tiles</t>
+          <t>waterproofing and tiling over tiles</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2705,7 +2701,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>athena maiden's veil</t>
+          <t>waterproof tile for shower walls</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2716,117 +2712,117 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>stick on tiles waterproof</t>
+          <t>waterproof patio tiles</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>vinyl tiles bathroom waterproof</t>
+          <t>waterproof shower curb</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor tile for basement</t>
+          <t>waterproof kitchen floor tiles</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>waterproof peel and stick wall tiles for shower</t>
+          <t>athena maiden's veil</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bathroom floor tiles waterproof</t>
+          <t>stick on tiles waterproof</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>waterproof tape for tiles</t>
+          <t>vinyl tiles bathroom waterproof</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>peel and stick waterproof tile for bathroom</t>
+          <t>waterproof peel and stick floor tile for basement</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>bathroom waterproof tiles</t>
+          <t>waterproof peel and stick wall tiles for shower</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>thermaldry carpet tiles</t>
+          <t>bathroom floor tiles waterproof</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>waterproof diy shower wall panels</t>
+          <t>waterproof tape for tiles</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor</t>
+          <t>peel and stick waterproof tile for bathroom</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2837,51 +2833,51 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>goboard waterproofing</t>
+          <t>bathroom waterproof tiles</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>bathroom vinyl floor tiles waterproof</t>
+          <t>thermaldry carpet tiles</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kitchen waterproof vinyl tile</t>
+          <t>waterproof diy shower wall panels</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>bathroom waterproof vinyl tile</t>
+          <t>waterproof peel and stick floor</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>steam shower waterproofing</t>
+          <t>goboard waterproofing</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2892,73 +2888,73 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>waterproofing after tiling</t>
+          <t>bathroom vinyl floor tiles waterproof</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>waterproof backsplash for bathroom</t>
+          <t>kitchen waterproof vinyl tile</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>laticrete waterproofing for swimming pool</t>
+          <t>bathroom waterproof vinyl tile</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>coretec tile looks</t>
+          <t>steam shower waterproofing</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>waterproofing tiles for roof</t>
+          <t>waterproofing after tiling</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>waterproofing on terrace tiles</t>
+          <t>waterproof backsplash for bathroom</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>moisture resistant suspended ceiling tiles</t>
+          <t>laticrete waterproofing for swimming pool</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2969,40 +2965,40 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>waterproof tile cement</t>
+          <t>coretec tile looks</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>densshield waterproofing</t>
+          <t>waterproofing tiles for roof</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>waterproof shower floor tile</t>
+          <t>waterproofing on terrace tiles</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>waterproof vinyl bathroom wall tiles</t>
+          <t>moisture resistant suspended ceiling tiles</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3013,18 +3009,18 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>weather proof tiles</t>
+          <t>waterproof tile cement</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="C234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>peel and stick waterproof wall tile</t>
+          <t>densshield waterproofing</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3035,7 +3031,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>water resistant shower wall panels</t>
+          <t>waterproof shower floor tile</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3046,7 +3042,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>waterproof sticky floor tiles</t>
+          <t>waterproof vinyl bathroom wall tiles</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3057,40 +3053,40 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>waterproofing on roof tiles</t>
+          <t>weather proof tiles</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>waterproof tiles for terrace price</t>
+          <t>peel and stick waterproof wall tile</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="C239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>waterproof wood tile</t>
+          <t>water resistant shower wall panels</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>duma wall tile</t>
+          <t>waterproof sticky floor tiles</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3101,40 +3097,40 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>waterproof shower stick on tiles</t>
+          <t>waterproofing on roof tiles</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>vinyl wall panels waterproof</t>
+          <t>waterproof tiles for terrace price</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>waterproof bathroom stick on tiles</t>
+          <t>waterproof wood tile</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>waterproof rubber tiles</t>
+          <t>duma wall tile</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3145,18 +3141,18 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>water resistant peel and stick floor tile</t>
+          <t>waterproof shower stick on tiles</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>spectratile ceiling tiles</t>
+          <t>vinyl wall panels waterproof</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3167,7 +3163,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>shower tile water repellent</t>
+          <t>waterproof bathroom stick on tiles</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3178,7 +3174,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>waterproof peel and stick for shower walls</t>
+          <t>waterproof rubber tiles</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3189,7 +3185,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>waterproofing bathtub walls</t>
+          <t>water resistant peel and stick floor tile</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3200,7 +3196,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>waterproofing under roof tiles</t>
+          <t>spectratile ceiling tiles</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3211,40 +3207,40 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>coretec stone look</t>
+          <t>shower tile water repellent</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>interlocking vinyl wall tile waterproof</t>
+          <t>waterproof peel and stick for shower walls</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>waterproof peel and stick vinyl</t>
+          <t>waterproofing bathtub walls</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>best waterproof peel and stick tile</t>
+          <t>waterproofing under roof tiles</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3255,18 +3251,18 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>palisade tiles for shower</t>
+          <t>coretec stone look</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>water repellent for shower tiles</t>
+          <t>tile waterproof vinyl flooring</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3277,62 +3273,62 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>waterproof tiles for bathroom wall</t>
+          <t>interlocking vinyl wall tile waterproof</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>bathroom under tile waterproofing</t>
+          <t>waterproof peel and stick vinyl</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>stick on waterproof bathroom tiles</t>
+          <t>best waterproof peel and stick tile</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>absolute tiling and waterproofing</t>
+          <t>palisade tiles for shower</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ansi a108 13 waterproofing</t>
+          <t>water repellent for shower tiles</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>aqua tile wall panels</t>
+          <t>waterproof tiles for bathroom wall</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3343,51 +3339,51 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>aquadefense shower</t>
+          <t>bathroom under tile waterproofing</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>390</v>
+        <v>10</v>
       </c>
       <c r="C264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>backsplash waterproof</t>
+          <t>stick on waterproof bathroom tiles</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>bathroom tile water repellent</t>
+          <t>absolute tiling and waterproofing</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>bathroom waterproof peel and stick shower tiles</t>
+          <t>ansi a108 13 waterproofing</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>best tiles for waterproofing</t>
+          <t>aqua tile wall panels</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3398,18 +3394,18 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>best waterproof tile</t>
+          <t>aquadefense shower</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="C269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>best waterproofing for tile shower</t>
+          <t>backsplash waterproof</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3420,7 +3416,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>best waterproofing for tiles</t>
+          <t>bathroom tile water repellent</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3431,7 +3427,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>best way to waterproof shower walls</t>
+          <t>bathroom waterproof peel and stick shower tiles</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3442,29 +3438,29 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>best weather proof tiles for terrace</t>
+          <t>best tiles for waterproofing</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>bondera waterproof seam tape</t>
+          <t>best waterproof tile</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ceramic tile waterproof gap tape</t>
+          <t>best waterproofing for tile shower</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3475,7 +3471,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ceramic tiles waterproof tape</t>
+          <t>best waterproofing for tiles</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3486,7 +3482,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ceramic waterproof</t>
+          <t>best way to waterproof shower walls</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3497,18 +3493,18 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>coretec ampera</t>
+          <t>best weather proof tiles for terrace</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>dampfix 3</t>
+          <t>bondera waterproof seam tape</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3519,7 +3515,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>desert canyon tile smartcore</t>
+          <t>ceramic tile waterproof gap tape</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3530,7 +3526,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>diy waterproof shower walls</t>
+          <t>ceramic tiles waterproof tape</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3541,161 +3537,161 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>dr fixit fevimate</t>
+          <t>ceramic waterproof</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>dr fixit fevimate price</t>
+          <t>coretec ampera</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>dr fixit for bathroom tiles</t>
+          <t>dampfix 3</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>dr fixit for roof tiles</t>
+          <t>desert canyon tile smartcore</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>dr fixit for tiles</t>
+          <t>diy waterproof shower walls</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>dr fixit kwik n ezee black</t>
+          <t>dr fixit fevimate</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>dr fixit tile gap fill</t>
+          <t>dr fixit fevimate price</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>dr fixit tile waterproofing</t>
+          <t>dr fixit for bathroom tiles</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>dr fixit waterproofing for bathroom tiles</t>
+          <t>dr fixit for roof tiles</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>dr fixit waterproofing for tiles</t>
+          <t>dr fixit for tiles</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>dukkaboard waterproof tape</t>
+          <t>dr fixit kwik n ezee black</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>duma wall menards</t>
+          <t>dr fixit tile gap fill</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>dumawall+ pvc wall panels</t>
+          <t>dr fixit tile waterproofing</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>dunlop rx3000</t>
+          <t>dr fixit waterproofing for bathroom tiles</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>dunlop undertile waterproofing</t>
+          <t>dr fixit waterproofing for tiles</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3706,7 +3702,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>floating floor tiles basement</t>
+          <t>dukkaboard waterproof tape</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3717,29 +3713,29 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>foam floor tiles waterproof</t>
+          <t>duma wall menards</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>genesis smooth pro ceiling tiles 2x4 white</t>
+          <t>dumawall+ pvc wall panels</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>glazed waterproof tiles</t>
+          <t>dunlop rx3000</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3750,29 +3746,29 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>hanwood hybrid tiles</t>
+          <t>dunlop undertile waterproofing</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>hard water resistant bathroom tiles</t>
+          <t>floating floor tiles basement</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>hard water resistant tiles</t>
+          <t>foam floor tiles waterproof</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3783,7 +3779,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>hydrathane waterproofing</t>
+          <t>genesis smooth pro ceiling tiles 2x4 white</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3794,7 +3790,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>hydroban shower</t>
+          <t>glazed waterproof tiles</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3805,7 +3801,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>impervious tile for shower</t>
+          <t>hanwood hybrid tiles</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3816,7 +3812,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>interlocking waterproof tile</t>
+          <t>hard water resistant bathroom tiles</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3827,51 +3823,51 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jackoboard waterproof tape</t>
+          <t>hard water resistant tiles</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kag roof tiles waterproof</t>
+          <t>hydrathane waterproofing</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>kag waterproof tiles</t>
+          <t>hydroban shower</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>kerakoll waterproofing price</t>
+          <t>impervious tile for shower</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>kitchen wall waterproof</t>
+          <t>interlocking waterproof tile</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3882,7 +3878,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>laticrete pool waterproofing</t>
+          <t>jackoboard waterproof tape</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3893,62 +3889,62 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>laticrete shower waterproofing</t>
+          <t>kag roof tiles waterproof</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>life proof vinyl tile</t>
+          <t>kag waterproof tiles</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>menards palisade wall tile</t>
+          <t>kerakoll waterproofing price</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>msi everlife whitfield gray</t>
+          <t>kitchen wall waterproof</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>myk laticrete waterproofing</t>
+          <t>laticrete pool waterproofing</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="C318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>no waterproofing in shower</t>
+          <t>laticrete shower waterproofing</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3959,29 +3955,29 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>palisade pvc wall tile</t>
+          <t>life proof vinyl tile</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>palisade tile shower</t>
+          <t>menards palisade wall tile</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>palisade vinyl tiles</t>
+          <t>msi everlife whitfield gray</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3992,84 +3988,84 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>peel and stick backsplash shower</t>
+          <t>myk laticrete waterproofing</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="C323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>peel and stick bathroom shower</t>
+          <t>no waterproofing in shower</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>peel and stick floor waterproof</t>
+          <t>palisade pvc wall tile</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>peel and stick vinyl tile in shower</t>
+          <t>palisade tile shower</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>peel and stick vinyl tile waterproof</t>
+          <t>palisade vinyl tiles</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>peel and stick vinyl waterproof</t>
+          <t>peel and stick backsplash shower</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>pidilite roff waterproofing</t>
+          <t>peel and stick bathroom shower</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>pre tile waterproofing</t>
+          <t>peel and stick floor waterproof</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4080,29 +4076,29 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>pvc waterproof tiles</t>
+          <t>peel and stick vinyl tile in shower</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>redifix waterproofing</t>
+          <t>peel and stick vinyl tile waterproof</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>revela tiles waterproof wall panels</t>
+          <t>peel and stick vinyl waterproof</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4113,18 +4109,18 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>roff waterproofing liquid</t>
+          <t>pidilite roff waterproofing</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>shower curb waterproofing</t>
+          <t>pre tile waterproofing</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4135,51 +4131,51 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>shower walls waterproof peel and stick shower tiles</t>
+          <t>pvc waterproof tiles</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sikatite under tile</t>
+          <t>redifix waterproofing</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>smartcore sumter stone vinyl tile</t>
+          <t>revela tiles waterproof wall panels</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>stick on waterproof floor tiles</t>
+          <t>roff waterproofing liquid</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>stick on waterproof wall tiles</t>
+          <t>shower curb waterproofing</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4190,7 +4186,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>sticky waterproof tiles</t>
+          <t>shower walls waterproof peel and stick shower tiles</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4201,18 +4197,18 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tec hydraflex waterproofing</t>
+          <t>sikatite under tile</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>technokolla waterproofing</t>
+          <t>smartcore sumter stone vinyl tile</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4223,51 +4219,51 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>terrace waterproofing on tiles</t>
+          <t>stick on waterproof floor tiles</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>thermal dry basement tiles</t>
+          <t>stick on waterproof wall tiles</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>thermaldry basement floor tiles</t>
+          <t>sticky waterproof tiles</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>thermaldry floor</t>
+          <t>tec hydraflex waterproofing</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>thermaldry floor tiles</t>
+          <t>technokolla waterproofing</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4278,51 +4274,51 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>thermaldry tiles</t>
+          <t>terrace waterproofing on tiles</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tile cement waterproof</t>
+          <t>thermal dry basement tiles</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tile gap waterproofing</t>
+          <t>thermaldry basement floor tiles</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="C351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tile joint waterproofing</t>
+          <t>thermaldry floor</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>tile look waterproof flooring</t>
+          <t>thermaldry floor tiles</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -4333,7 +4329,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>tile over tile waterproofing</t>
+          <t>thermaldry tiles</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -4344,7 +4340,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>tile reform shopee</t>
+          <t>tile cement waterproof</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -4355,40 +4351,40 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>tile reform waterproof</t>
+          <t>tile gap waterproofing</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="C356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>tile wall waterproofing</t>
+          <t>tile joint waterproofing</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>tile water proofing</t>
+          <t>tile look waterproof flooring</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>tile water repellent</t>
+          <t>tile over tile waterproofing</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4399,51 +4395,51 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>tile water resistant</t>
+          <t>tile reform shopee</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>tiled terrace waterproofing</t>
+          <t>tile reform waterproof</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>880</v>
+        <v>30</v>
       </c>
       <c r="C361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>tiles for waterproofing</t>
+          <t>tile wall waterproofing</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>tilesafe</t>
+          <t>tile water proofing</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>tilesafe waterproofing</t>
+          <t>tile water repellent</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4454,62 +4450,62 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>tiling over aquadefense</t>
+          <t>tile water resistant</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>tiling over polyurethane waterproofing</t>
+          <t>tiled terrace waterproofing</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>10</v>
+        <v>880</v>
       </c>
       <c r="C366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>tiling over waterproofing</t>
+          <t>tiles for waterproofing</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>tony glover tiling &amp; waterproofing</t>
+          <t>tilesafe</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>transparent waterproofing for tiles</t>
+          <t>tilesafe waterproofing</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>vinyl interlocking waterproof wall tile</t>
+          <t>tiling over aquadefense</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4520,18 +4516,18 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>vinyl on shower walls</t>
+          <t>tiling over polyurethane waterproofing</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>vinyl waterproof peel and stick tiles</t>
+          <t>tiling over waterproofing</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4542,51 +4538,51 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>wall tile waterproofing</t>
+          <t>tony glover tiling &amp; waterproofing</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>water proof tiles for terrace</t>
+          <t>transparent waterproofing for tiles</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>880</v>
+        <v>20</v>
       </c>
       <c r="C374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>water proofing for showers</t>
+          <t>vinyl interlocking waterproof wall tile</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>water proofing for tiles</t>
+          <t>vinyl on shower walls</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>water proofing shower walls</t>
+          <t>vinyl waterproof peel and stick tiles</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4597,51 +4593,51 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>water repellent for bathroom tiles</t>
+          <t>wall tile waterproofing</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>water repellent for tiles</t>
+          <t>water proof tiles for terrace</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>10</v>
+        <v>880</v>
       </c>
       <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>water resistant stick on tile</t>
+          <t>water proofing for showers</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>water resistant vinyl tile</t>
+          <t>water proofing for tiles</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>waterproof backsplash for kitchen sink</t>
+          <t>water proofing shower walls</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4652,18 +4648,18 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>waterproof bath wall panels</t>
+          <t>water repellent for bathroom tiles</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>waterproof bathroom vinyl</t>
+          <t>water repellent for tiles</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4674,73 +4670,73 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>waterproof bathroom vinyl peel and stick tiles</t>
+          <t>water resistant stick on tile</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>waterproof bathroom wall tiles</t>
+          <t>water resistant vinyl tile</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>waterproof cork floor tiles</t>
+          <t>waterproof backsplash for kitchen sink</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>waterproof cork tiles</t>
+          <t>waterproof bath wall panels</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>waterproof false ceiling tiles</t>
+          <t>waterproof bathroom vinyl</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>waterproof floor carpet tiles</t>
+          <t>waterproof bathroom vinyl peel and stick tiles</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>waterproof floor tiles for terrace</t>
+          <t>waterproof bathroom wall tiles</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4751,18 +4747,18 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>waterproof floor tiles price</t>
+          <t>waterproof cork floor tiles</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>waterproof flooring tile look</t>
+          <t>waterproof cork tiles</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4773,29 +4769,29 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>waterproof for bathroom tiles</t>
+          <t>waterproof false ceiling tiles</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>waterproof groutless tile</t>
+          <t>waterproof floor carpet tiles</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>waterproof kitchen backsplash</t>
+          <t>waterproof floor tiles for terrace</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4806,7 +4802,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>waterproof laticrete</t>
+          <t>waterproof floor tiles price</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4817,51 +4813,51 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>waterproof linoleum tile</t>
+          <t>waterproof flooring over tile</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>waterproof liquid for tiles</t>
+          <t>waterproof flooring tile look</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>waterproof marble tile</t>
+          <t>waterproof for bathroom tiles</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>waterproof mosaic tiles</t>
+          <t>waterproof groutless tile</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>waterproof outdoor floor tiles</t>
+          <t>waterproof kitchen backsplash</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4872,7 +4868,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>waterproof peel and stick bathroom floor tiles</t>
+          <t>waterproof laticrete</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4883,7 +4879,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>waterproof peel and stick floor tile menards</t>
+          <t>waterproof linoleum tile</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4894,18 +4890,18 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>waterproof peel and stick vinyl floor tile</t>
+          <t>waterproof liquid for tiles</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>waterproof plastic tiles</t>
+          <t>waterproof marble tile</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4916,18 +4912,18 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>waterproof roof tiles price</t>
+          <t>waterproof mosaic tiles</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>waterproof seam tape for tile</t>
+          <t>waterproof outdoor floor tiles</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4938,40 +4934,40 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>waterproof self stick tiles</t>
+          <t>waterproof peel and stick bathroom floor tiles</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>waterproof shower panels over tiles</t>
+          <t>waterproof peel and stick floor tile menards</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>waterproof snap together tile</t>
+          <t>waterproof peel and stick vinyl floor tile</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>waterproof stick on bathroom tiles</t>
+          <t>waterproof plastic tiles</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4982,40 +4978,40 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>waterproof stick on vinyl</t>
+          <t>waterproof roof tiles price</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>waterproof tape for bathroom tiles</t>
+          <t>waterproof seam tape for tile</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>waterproof tile edging</t>
+          <t>waterproof self stick tiles</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>waterproof tile sheets</t>
+          <t>waterproof shower panels over tiles</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5026,7 +5022,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>waterproof tile that looks like wood</t>
+          <t>waterproof snap together tile</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5037,7 +5033,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>waterproof tile wall panels</t>
+          <t>waterproof stick on bathroom tiles</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5048,29 +5044,29 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>waterproof tiles for kitchen</t>
+          <t>waterproof stick on vinyl</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>waterproof tiles for roof price</t>
+          <t>waterproof tape for bathroom tiles</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>waterproof tiles for swimming pool</t>
+          <t>waterproof tile edging</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5081,40 +5077,40 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>waterproof tiles for wall</t>
+          <t>waterproof tile sheets</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>waterproof tiles for water tank</t>
+          <t>waterproof tile that looks like wood</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>waterproof tiles price</t>
+          <t>waterproof tile wall panels</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>waterproof under tile floor</t>
+          <t>waterproof tiles for kitchen</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5125,84 +5121,84 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>waterproof vinyl backsplash</t>
+          <t>waterproof tiles for roof price</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>waterproof vinyl bathroom tiles</t>
+          <t>waterproof tiles for swimming pool</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>waterproof vinyl tiles bathroom</t>
+          <t>waterproof tiles for wall</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>waterproof wall shower wall panels that look like tile</t>
+          <t>waterproof tiles for water tank</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>waterproof wood floor tiles</t>
+          <t>waterproof tiles price</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>waterproof wood look tile</t>
+          <t>waterproof under tile floor</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>waterproofer tiler</t>
+          <t>waterproof vinyl backsplash</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="C432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>waterproofing behind shower tile</t>
+          <t>waterproof vinyl bathroom tiles</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -5213,29 +5209,29 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>waterproofing behind tile</t>
+          <t>waterproof vinyl flooring looks like tile</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>waterproofing chemicals for bathroom tiles</t>
+          <t>waterproof vinyl tiles bathroom</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>waterproofing densshield</t>
+          <t>waterproof wall shower wall panels that look like tile</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -5246,7 +5242,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>waterproofing for floor tiles</t>
+          <t>waterproof wood floor tiles</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -5257,29 +5253,29 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>waterproofing in shower</t>
+          <t>waterproof wood look tile</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>waterproofing over mud bed</t>
+          <t>waterproofer tiler</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="C439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>waterproofing pool tile</t>
+          <t>waterproofing behind shower tile</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -5290,7 +5286,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>waterproofing shower after tiling</t>
+          <t>waterproofing behind tile</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -5301,29 +5297,29 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>waterproofing shower walls after tiling</t>
+          <t>waterproofing chemicals for bathroom tiles</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>waterproofing slate tiles</t>
+          <t>waterproofing densshield</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>waterproofing terracotta tiles</t>
+          <t>waterproofing for floor tiles</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -5334,18 +5330,18 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>waterproofing under tile deck</t>
+          <t>waterproofing in shower</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>waterproofing wood backsplash</t>
+          <t>waterproofing over mud bed</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -5356,40 +5352,40 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>weather proof clay panels</t>
+          <t>waterproofing pool tile</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>weather proof tiles for terrace</t>
+          <t>waterproofing shower after tiling</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="C448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>weather proof tiles price</t>
+          <t>waterproofing shower walls after tiling</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>weather resistant deck tiles</t>
+          <t>waterproofing slate tiles</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -5400,7 +5396,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>weatherproof roof tiles</t>
+          <t>waterproofing terracotta tiles</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -5411,7 +5407,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>wet basement floor tiles</t>
+          <t>waterproofing under tile deck</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -5422,35 +5418,101 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>wet wall panels for shower</t>
+          <t>waterproofing wood backsplash</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>wipeable backsplash</t>
+          <t>weather proof clay panels</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>waterproof tiles for home waterproof tiles near me</t>
+          <t>weather proof tiles for terrace</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>weather proof tiles price</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>40</v>
+      </c>
+      <c r="C456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>weather resistant deck tiles</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>weatherproof roof tiles</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>10</v>
+      </c>
+      <c r="C458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>wet basement floor tiles</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>wet wall panels for shower</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>10</v>
+      </c>
+      <c r="C460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>wipeable backsplash</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+      <c r="C461" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
